--- a/Отчет Эпизотолог/08.2020 - месячный/Быстрый отчет.xlsx
+++ b/Отчет Эпизотолог/08.2020 - месячный/Быстрый отчет.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DBB401-C8A7-4879-BF53-DAAFB0D7908A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1D9FD-FE42-4061-89A6-86C52112CDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рабочее" sheetId="2" r:id="rId1"/>
@@ -1256,6 +1256,35 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1290,216 +1319,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1543,6 +1362,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1559,6 +1472,47 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1690,6 +1644,52 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1704,35 +1704,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="O1:O11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица3" displayName="Таблица3" ref="O1:O11" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="O1:O11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="O2:O11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O11">
     <sortCondition ref="O11"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="кошка" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="кошка" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="P1:P30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="P1:P30" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="P1:P30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState ref="P2:P30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:P30">
     <sortCondition ref="P2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="собака" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="собака" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="вак" displayName="вак" ref="Q1:Q35" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="вак" displayName="вак" ref="Q1:Q35" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="Q1:Q35" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState ref="Q2:Q35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:Q35">
     <sortCondition ref="Q2"/>
   </sortState>
   <tableColumns count="1">
@@ -1743,20 +1743,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Улица" displayName="Улица" ref="L1:L25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Улица" displayName="Улица" ref="L1:L25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="L1:L25" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <sortState ref="L2:L25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L25">
     <sortCondition ref="L25"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Улица" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Улица" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Таблица2" displayName="Таблица2" ref="M1:M3" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Таблица2" displayName="Таблица2" ref="M1:M3" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="M1:M3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Вид ж-го"/>
@@ -1766,36 +1766,36 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Таблица6" displayName="Таблица6" ref="N1:N3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Таблица6" displayName="Таблица6" ref="N1:N3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="N1:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="пол" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="пол" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Таблица13" displayName="Таблица13" ref="M2:M23" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Таблица13" displayName="Таблица13" ref="M2:M23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="M2:M23" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <sortState ref="M3:M23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:M23">
     <sortCondition ref="M3"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Столбец1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Столбец1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Таблица16" displayName="Таблица16" ref="N1:N36" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Таблица16" displayName="Таблица16" ref="N1:N36" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="N1:N36" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
-  <sortState ref="N2:N36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N36">
     <sortCondition ref="N36"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Столбец1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Столбец1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3098,7 +3098,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B1:L35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:L35">
     <sortCondition ref="F1:F35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3211,7 +3211,7 @@
         <v>287</v>
       </c>
       <c r="I2" s="36" t="str">
-        <f>LEFT(H2,3)</f>
+        <f t="shared" ref="I2:I18" si="0">LEFT(H2,3)</f>
         <v>4 м</v>
       </c>
       <c r="J2" s="35" t="s">
@@ -3262,7 +3262,7 @@
         <v>242</v>
       </c>
       <c r="I3" s="36" t="str">
-        <f>LEFT(H3,3)</f>
+        <f t="shared" si="0"/>
         <v>7л.</v>
       </c>
       <c r="J3" s="35" t="s">
@@ -3313,7 +3313,7 @@
         <v>250</v>
       </c>
       <c r="I4" s="36" t="str">
-        <f>LEFT(H4,3)</f>
+        <f t="shared" si="0"/>
         <v>4м.</v>
       </c>
       <c r="J4" s="35" t="s">
@@ -3358,7 +3358,7 @@
         <v>249</v>
       </c>
       <c r="I5" s="36" t="str">
-        <f>LEFT(H5,3)</f>
+        <f t="shared" si="0"/>
         <v>8л.</v>
       </c>
       <c r="J5" s="35" t="s">
@@ -3403,7 +3403,7 @@
         <v>249</v>
       </c>
       <c r="I6" s="36" t="str">
-        <f>LEFT(H6,3)</f>
+        <f t="shared" si="0"/>
         <v>8л.</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -3448,7 +3448,7 @@
         <v>175</v>
       </c>
       <c r="I7" s="37" t="str">
-        <f>LEFT(H7,3)</f>
+        <f t="shared" si="0"/>
         <v>3м.</v>
       </c>
       <c r="J7" s="35" t="s">
@@ -3493,7 +3493,7 @@
         <v>181</v>
       </c>
       <c r="I8" s="36" t="str">
-        <f>LEFT(H8,3)</f>
+        <f t="shared" si="0"/>
         <v>4м.</v>
       </c>
       <c r="J8" s="35" t="s">
@@ -3538,7 +3538,7 @@
         <v>269</v>
       </c>
       <c r="I9" s="36" t="str">
-        <f>LEFT(H9,3)</f>
+        <f t="shared" si="0"/>
         <v>5м.</v>
       </c>
       <c r="J9" s="35" t="s">
@@ -3583,7 +3583,7 @@
         <v>264</v>
       </c>
       <c r="I10" s="36" t="str">
-        <f>LEFT(H10,3)</f>
+        <f t="shared" si="0"/>
         <v>5м.</v>
       </c>
       <c r="J10" s="35" t="s">
@@ -3628,7 +3628,7 @@
         <v>122</v>
       </c>
       <c r="I11" s="36" t="str">
-        <f>LEFT(H11,3)</f>
+        <f t="shared" si="0"/>
         <v>2м.</v>
       </c>
       <c r="J11" s="35" t="s">
@@ -3673,7 +3673,7 @@
         <v>116</v>
       </c>
       <c r="I12" s="36" t="str">
-        <f>LEFT(H12,3)</f>
+        <f t="shared" si="0"/>
         <v>3м.</v>
       </c>
       <c r="J12" s="35" t="s">
@@ -3716,7 +3716,7 @@
         <v>214</v>
       </c>
       <c r="I13" s="36" t="str">
-        <f>LEFT(H13,3)</f>
+        <f t="shared" si="0"/>
         <v>6л.</v>
       </c>
       <c r="J13" s="35" t="s">
@@ -3758,7 +3758,7 @@
         <v>228</v>
       </c>
       <c r="I14" s="34" t="str">
-        <f>LEFT(H14,3)</f>
+        <f t="shared" si="0"/>
         <v>4г.</v>
       </c>
       <c r="J14" t="s">
@@ -3800,7 +3800,7 @@
         <v>228</v>
       </c>
       <c r="I15" s="34" t="str">
-        <f>LEFT(H15,3)</f>
+        <f t="shared" si="0"/>
         <v>4г.</v>
       </c>
       <c r="J15" t="s">
@@ -3842,7 +3842,7 @@
         <v>205</v>
       </c>
       <c r="I16" s="34" t="str">
-        <f>LEFT(H16,3)</f>
+        <f t="shared" si="0"/>
         <v>7л.</v>
       </c>
       <c r="J16" t="s">
@@ -3884,7 +3884,7 @@
         <v>277</v>
       </c>
       <c r="I17" s="34" t="str">
-        <f>LEFT(H17,3)</f>
+        <f t="shared" si="0"/>
         <v>5л.</v>
       </c>
       <c r="J17" t="s">
@@ -3926,7 +3926,7 @@
         <v>238</v>
       </c>
       <c r="I18" s="34" t="str">
-        <f>LEFT(H18,3)</f>
+        <f t="shared" si="0"/>
         <v>8л.</v>
       </c>
       <c r="J18" t="s">
@@ -4214,7 +4214,7 @@
         <v>223</v>
       </c>
       <c r="I25" s="34" t="str">
-        <f>LEFT(H25,3)</f>
+        <f t="shared" ref="I25:I43" si="1">LEFT(H25,3)</f>
         <v>3м.</v>
       </c>
       <c r="J25" t="s">
@@ -4256,7 +4256,7 @@
         <v>201</v>
       </c>
       <c r="I26" s="34" t="str">
-        <f>LEFT(H26,3)</f>
+        <f t="shared" si="1"/>
         <v>5м.</v>
       </c>
       <c r="J26" t="s">
@@ -4295,7 +4295,7 @@
         <v>218</v>
       </c>
       <c r="I27" s="34" t="str">
-        <f>LEFT(H27,3)</f>
+        <f t="shared" si="1"/>
         <v>1г.</v>
       </c>
       <c r="J27" t="s">
@@ -4334,7 +4334,7 @@
         <v>219</v>
       </c>
       <c r="I28" s="34" t="str">
-        <f>LEFT(H28,3)</f>
+        <f t="shared" si="1"/>
         <v>3м.</v>
       </c>
       <c r="J28" t="s">
@@ -4373,7 +4373,7 @@
         <v>219</v>
       </c>
       <c r="I29" s="34" t="str">
-        <f>LEFT(H29,3)</f>
+        <f t="shared" si="1"/>
         <v>3м.</v>
       </c>
       <c r="J29" t="s">
@@ -4412,7 +4412,7 @@
         <v>245</v>
       </c>
       <c r="I30" s="34" t="str">
-        <f>LEFT(H30,3)</f>
+        <f t="shared" si="1"/>
         <v>4г.</v>
       </c>
       <c r="J30" t="s">
@@ -4449,7 +4449,7 @@
         <v>186</v>
       </c>
       <c r="I31" s="34" t="str">
-        <f>LEFT(H31,3)</f>
+        <f t="shared" si="1"/>
         <v>2м.</v>
       </c>
       <c r="J31" t="s">
@@ -4485,7 +4485,7 @@
         <v>232</v>
       </c>
       <c r="I32" s="34" t="str">
-        <f>LEFT(H32,3)</f>
+        <f t="shared" si="1"/>
         <v>2г.</v>
       </c>
       <c r="J32" t="s">
@@ -4521,7 +4521,7 @@
         <v>232</v>
       </c>
       <c r="I33" s="34" t="str">
-        <f>LEFT(H33,3)</f>
+        <f t="shared" si="1"/>
         <v>2г.</v>
       </c>
       <c r="J33" t="s">
@@ -4557,7 +4557,7 @@
         <v>211</v>
       </c>
       <c r="I34" s="34" t="str">
-        <f>LEFT(H34,3)</f>
+        <f t="shared" si="1"/>
         <v>4г.</v>
       </c>
       <c r="J34" t="s">
@@ -4593,7 +4593,7 @@
         <v>192</v>
       </c>
       <c r="I35" s="34" t="str">
-        <f>LEFT(H35,3)</f>
+        <f t="shared" si="1"/>
         <v>4г.</v>
       </c>
       <c r="J35" t="s">
@@ -4629,7 +4629,7 @@
         <v>207</v>
       </c>
       <c r="I36" s="34" t="str">
-        <f>LEFT(H36,3)</f>
+        <f t="shared" si="1"/>
         <v>5л.</v>
       </c>
       <c r="J36" t="s">
@@ -4662,7 +4662,7 @@
         <v>170</v>
       </c>
       <c r="I37" s="34" t="str">
-        <f>LEFT(H37,3)</f>
+        <f t="shared" si="1"/>
         <v>4г.</v>
       </c>
       <c r="J37" t="s">
@@ -4695,7 +4695,7 @@
         <v>170</v>
       </c>
       <c r="I38" s="34" t="str">
-        <f>LEFT(H38,3)</f>
+        <f t="shared" si="1"/>
         <v>4г.</v>
       </c>
       <c r="J38" t="s">
@@ -4728,7 +4728,7 @@
         <v>260</v>
       </c>
       <c r="I39" s="34" t="str">
-        <f>LEFT(H39,3)</f>
+        <f t="shared" si="1"/>
         <v>4м.</v>
       </c>
       <c r="J39" t="s">
@@ -4761,7 +4761,7 @@
         <v>200</v>
       </c>
       <c r="I40" s="34" t="str">
-        <f>LEFT(H40,3)</f>
+        <f t="shared" si="1"/>
         <v>3г.</v>
       </c>
       <c r="J40" t="s">
@@ -4794,7 +4794,7 @@
         <v>200</v>
       </c>
       <c r="I41" s="34" t="str">
-        <f>LEFT(H41,3)</f>
+        <f t="shared" si="1"/>
         <v>3г.</v>
       </c>
       <c r="J41" t="s">
@@ -4827,7 +4827,7 @@
         <v>255</v>
       </c>
       <c r="I42" s="34" t="str">
-        <f>LEFT(H42,3)</f>
+        <f t="shared" si="1"/>
         <v>3м.</v>
       </c>
       <c r="J42" t="s">
@@ -4836,7 +4836,7 @@
     </row>
     <row r="43" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I43" s="34" t="str">
-        <f>LEFT(H43,3)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
       <c r="J147" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J64">
     <sortCondition ref="E2:E64"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5851,8 +5851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" activeCellId="2" sqref="G3:G6 G11 G13:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6586,7 +6586,7 @@
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21">
-        <f t="shared" ref="K7:K24" si="1">COUNTIF(J:J,J21)</f>
+        <f t="shared" ref="K21:K24" si="1">COUNTIF(J:J,J21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="41" t="s">
@@ -6677,7 +6677,7 @@
       <c r="M30" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="B3:J19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J19">
     <sortCondition ref="J3:J19"/>
   </sortState>
   <dataValidations count="11">
@@ -6727,8 +6727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6847,7 +6847,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K66" si="0">COUNTIF(J:J,J3)</f>
+        <f t="shared" ref="K3:K38" si="0">COUNTIF(J:J,J3)</f>
         <v>1</v>
       </c>
       <c r="N3" s="17" t="s">
@@ -6982,7 +6982,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K12" s="30">
-        <f>COUNTIF(J:J,J50)</f>
+        <f t="shared" ref="K12:K17" si="1">COUNTIF(J:J,J50)</f>
         <v>9</v>
       </c>
       <c r="N12" s="17" t="s">
@@ -6991,7 +6991,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K13" s="30">
-        <f>COUNTIF(J:J,J51)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N13" s="29" t="s">
@@ -7000,7 +7000,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K14" s="30">
-        <f>COUNTIF(J:J,J52)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N14" s="16" t="s">
@@ -7009,7 +7009,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K15" s="30">
-        <f>COUNTIF(J:J,J53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N15" s="27" t="s">
@@ -7018,7 +7018,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K16" s="30">
-        <f>COUNTIF(J:J,J54)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N16" s="27" t="s">
@@ -7027,7 +7027,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K17" s="30">
-        <f>COUNTIF(J:J,J55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N17" s="17" t="s">
@@ -7525,7 +7525,7 @@
         <v>159</v>
       </c>
       <c r="K39" s="15">
-        <f>COUNTIF(J:J,J39)</f>
+        <f t="shared" ref="K39:K53" si="2">COUNTIF(J:J,J39)</f>
         <v>2</v>
       </c>
       <c r="L39" s="7"/>
@@ -7559,7 +7559,7 @@
         <v>159</v>
       </c>
       <c r="K40" s="15">
-        <f>COUNTIF(J:J,J40)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L40" s="7"/>
@@ -7593,7 +7593,7 @@
         <v>158</v>
       </c>
       <c r="K41" s="15">
-        <f>COUNTIF(J:J,J41)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L41" s="7"/>
@@ -7627,7 +7627,7 @@
         <v>158</v>
       </c>
       <c r="K42" s="15">
-        <f>COUNTIF(J:J,J42)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L42" s="7"/>
@@ -7661,7 +7661,7 @@
         <v>160</v>
       </c>
       <c r="K43" s="15">
-        <f>COUNTIF(J:J,J43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L43" s="7"/>
@@ -7695,7 +7695,7 @@
         <v>160</v>
       </c>
       <c r="K44" s="15">
-        <f>COUNTIF(J:J,J44)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L44" s="7"/>
@@ -7729,7 +7729,7 @@
         <v>161</v>
       </c>
       <c r="K45" s="15">
-        <f>COUNTIF(J:J,J45)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L45" s="7"/>
@@ -7763,7 +7763,7 @@
         <v>156</v>
       </c>
       <c r="K46" s="15">
-        <f>COUNTIF(J:J,J46)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L46" s="7"/>
@@ -7797,7 +7797,7 @@
         <v>156</v>
       </c>
       <c r="K47" s="15">
-        <f>COUNTIF(J:J,J47)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L47" s="7"/>
@@ -7831,7 +7831,7 @@
         <v>156</v>
       </c>
       <c r="K48" s="15">
-        <f>COUNTIF(J:J,J48)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
         <v>156</v>
       </c>
       <c r="K49" s="15">
-        <f>COUNTIF(J:J,J49)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
         <v>156</v>
       </c>
       <c r="K50" s="15">
-        <f>COUNTIF(J:J,J50)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>156</v>
       </c>
       <c r="K51" s="15">
-        <f>COUNTIF(J:J,J51)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
         <v>156</v>
       </c>
       <c r="K52" s="15">
-        <f>COUNTIF(J:J,J52)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
         <v>156</v>
       </c>
       <c r="K53" s="15">
-        <f>COUNTIF(J:J,J53)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
         <v>156</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" ref="K54:K55" si="1">COUNTIF(J:J,J54)</f>
+        <f t="shared" ref="K54:K55" si="3">COUNTIF(J:J,J54)</f>
         <v>9</v>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
         <v>79</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
         <v>293</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" ref="K54:K61" si="2">COUNTIF(J:J,J56)</f>
+        <f t="shared" ref="K56:K61" si="4">COUNTIF(J:J,J56)</f>
         <v>1</v>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
         <v>44</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
         <v>157</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
         <v>157</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
         <v>157</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
         <v>157</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
       <c r="I67" s="51"/>
       <c r="J67" s="51"/>
       <c r="K67" s="30">
-        <f t="shared" ref="K67:K77" si="3">COUNTIF(J:J,J67)</f>
+        <f t="shared" ref="K67:K77" si="5">COUNTIF(J:J,J67)</f>
         <v>0</v>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8530,7 +8530,7 @@
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
       <c r="K74" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
       <c r="K77" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8749,11 +8749,11 @@
       <c r="J91" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="B39:K66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B39:K66">
     <sortCondition ref="J39:J66"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="17">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:C61 C63 C65:C77 C29:C47 C3:C5" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>Список_улиц</formula1>
     </dataValidation>
@@ -8769,7 +8769,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J46:J47 J1:J5 J65:J73 J63 J29:J43 J50:J60" xr:uid="{00000000-0002-0000-0300-00000F000000}">
       <formula1>$N$2:$N$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H31" xr:uid="{00000000-0002-0000-0300-000010000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H39 H60 G67:G77 H63 H43 H65:H66 H29:H31" xr:uid="{00000000-0002-0000-0300-000010000000}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32:H33" xr:uid="{7116B036-DB07-4EAC-A5E0-AF24190503E7}">
@@ -8778,26 +8778,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52" xr:uid="{904A2649-B1F3-475C-9CED-23DDADABA428}">
       <formula1>INDIRECT($E$65)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71:G75 H60 G67 H63 H43 H65:H66 H29" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J38:J39" xr:uid="{D3A470B3-56B1-495B-B9D1-7A99C47EA71F}">
       <formula1>Вакц</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H51 H58:H61 H46:H47 H34:H35 H54:H56 H65:H66 H29:H31 H38:H44 H4:H5" xr:uid="{33E9D970-9DA0-4BA9-8F18-28F8688AC60A}">
       <formula1>INDIRECT($E$42)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69:G70" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76:G77" xr:uid="{00000000-0002-0000-0300-000004000000}">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H39 H43" xr:uid="{00000000-0002-0000-0300-00000A000000}">
-      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32:H35" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>INDIRECT($F$50)</formula1>
